--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2527.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2527.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.587493306619735</v>
+        <v>2.188575983047485</v>
       </c>
       <c r="B1">
-        <v>3.654958191485395</v>
+        <v>2.297712802886963</v>
       </c>
       <c r="C1">
-        <v>3.235646061699684</v>
+        <v>2.34470009803772</v>
       </c>
       <c r="D1">
-        <v>1.69322600662802</v>
+        <v>3.110618591308594</v>
       </c>
       <c r="E1">
-        <v>1.66835381743816</v>
+        <v>2.653542041778564</v>
       </c>
     </row>
   </sheetData>
